--- a/biology/Médecine/Antoine_Ritti/Antoine_Ritti.xlsx
+++ b/biology/Médecine/Antoine_Ritti/Antoine_Ritti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Ritti (Strasbourg, 6 février 1844 - Paris 22 janvier 1920) était un psychiatre français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine Ritti, dont l'oncle était André Raess, l'évêque de Strasbourg, semblait à l'origine destiné à devenir prêtre. Cependant, il a choisi de se lancer dans une carrière médicale. Il a commencé sa formation de psychiatre à l'asile de Fains dans le département de la Meuse. Il est influencé par les idées d'Auguste Comte devenant un positiviste[1].
-En 1869, il publie son premier ouvrage, La Pensée Nouvelle. Après le traité de Francfort qui met fin à la guerre franco-prussienne de 1870, il quitte l'Alsace pour Paris, et travaille à l'hôpital Lariboisière pendant la Commune de Paris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Ritti, dont l'oncle était André Raess, l'évêque de Strasbourg, semblait à l'origine destiné à devenir prêtre. Cependant, il a choisi de se lancer dans une carrière médicale. Il a commencé sa formation de psychiatre à l'asile de Fains dans le département de la Meuse. Il est influencé par les idées d'Auguste Comte devenant un positiviste.
+En 1869, il publie son premier ouvrage, La Pensée Nouvelle. Après le traité de Francfort qui met fin à la guerre franco-prussienne de 1870, il quitte l'Alsace pour Paris, et travaille à l'hôpital Lariboisière pendant la Commune de Paris.
 Il obtient ensuite un poste interne à l'asile de Charenton. En 1878, il est nommé médecin en chef à Charenton, poste qu'il occupe jusqu'à sa retraite en 1909.
-Antoine Ritti a étudié sous Jules Bernard Luys et appliqué les découvertes anatomo-fonctionnelles de Luys pour développer une théorie du rôle du thalamus dans la physiopathologie des hallucinations[1].
+Antoine Ritti a étudié sous Jules Bernard Luys et appliqué les découvertes anatomo-fonctionnelles de Luys pour développer une théorie du rôle du thalamus dans la physiopathologie des hallucinations.
 Pendant 38 ans, de 1882 à 1920, Ritti a été secrétaire général de la Société médico-psychologique. Au cours de ces années, il écrivit de nombreux éloges et nécrologies publiés dans les Annales médico-psychologiques.
 Le docteur Antoine Ritti est inhumé au cimetière du Père-Lachaise (division 27), dans la tombe des familles Bouclier de la Fizelière surmonté d'un buste le représentant, signé Marthe de la Fizelière.
 </t>
